--- a/dataset/region/sexo_edad_metropolitana.xlsx
+++ b/dataset/region/sexo_edad_metropolitana.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kirit\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfurn\Desktop\proyectovdd\errores\dashboard_seguridad\dataset\region\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C108BF4-5DDB-4F99-A9C4-1007302628D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E47A78-BA94-485E-98B2-6B57E0A39336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{20BC2466-BA80-4732-B491-66D55675600D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{20BC2466-BA80-4732-B491-66D55675600D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -194,25 +194,25 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -532,77 +532,77 @@
   <dimension ref="A1:U49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection sqref="A1:U49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2">
         <v>2005</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="3">
         <v>2006</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="3">
         <v>2007</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="3">
         <v>2008</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="3">
         <v>2009</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="3">
         <v>2010</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="3">
         <v>2011</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="3">
         <v>2012</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="3">
         <v>2013</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="3">
         <v>2014</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="3">
         <v>2015</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="3">
         <v>2016</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="3">
         <v>2017</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="3">
         <v>2018</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="3">
         <v>2019</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="3">
         <v>2020</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="3">
         <v>2021</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="3">
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -667,7 +667,7 @@
         <v>2949</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -732,7 +732,7 @@
         <v>4354</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -797,7 +797,7 @@
         <v>42761</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -862,7 +862,7 @@
         <v>58064</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -927,7 +927,7 @@
         <v>38836</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -992,7 +992,7 @@
         <v>9646</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>156826</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>3223</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>44744</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>71660</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>51806</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>12149</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>3</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>3</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>185609</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>4779</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>3</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>7577</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>87505</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>3</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>129724</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>3</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>90642</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>3</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>21795</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>3</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>342435</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>15</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>15</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>15</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>7698</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>15</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>9044</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>15</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>4239</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>15</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>15</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>15</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>22628</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>15</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>15</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>3644</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>15</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>26086</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>15</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>33183</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>15</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>14866</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>15</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>15</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>15</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>80336</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>15</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>15</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>4548</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>15</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>33784</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>15</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>42227</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>15</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>19105</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>15</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>15</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>15</v>
       </c>

--- a/dataset/region/sexo_edad_metropolitana.xlsx
+++ b/dataset/region/sexo_edad_metropolitana.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfurn\Desktop\proyectovdd\errores\dashboard_seguridad\dataset\region\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E47A78-BA94-485E-98B2-6B57E0A39336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DF98CC-CA14-446D-B46E-0CF9F8AD3B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{20BC2466-BA80-4732-B491-66D55675600D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="34">
   <si>
     <t>Tipo Participante</t>
   </si>
@@ -85,25 +85,72 @@
   <si>
     <t>VICTIMARIO</t>
   </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="7"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -117,6 +164,12 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="GobCL"/>
     </font>
   </fonts>
   <fills count="4">
@@ -135,11 +188,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF1D89C8"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF1D89C8"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -175,45 +228,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,3193 +566,3193 @@
   <dimension ref="A1:U49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:U49"/>
+      <selection sqref="A1:U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2">
-        <v>2005</v>
-      </c>
-      <c r="E1" s="3">
-        <v>2006</v>
-      </c>
-      <c r="F1" s="3">
-        <v>2007</v>
-      </c>
-      <c r="G1" s="3">
-        <v>2008</v>
-      </c>
-      <c r="H1" s="3">
-        <v>2009</v>
-      </c>
-      <c r="I1" s="3">
-        <v>2010</v>
-      </c>
-      <c r="J1" s="3">
-        <v>2011</v>
-      </c>
-      <c r="K1" s="3">
-        <v>2012</v>
-      </c>
-      <c r="L1" s="3">
-        <v>2013</v>
-      </c>
-      <c r="M1" s="3">
-        <v>2014</v>
-      </c>
-      <c r="N1" s="3">
-        <v>2015</v>
-      </c>
-      <c r="O1" s="3">
-        <v>2016</v>
-      </c>
-      <c r="P1" s="3">
-        <v>2017</v>
-      </c>
-      <c r="Q1" s="3">
-        <v>2018</v>
-      </c>
-      <c r="R1" s="3">
-        <v>2019</v>
-      </c>
-      <c r="S1" s="3">
-        <v>2020</v>
-      </c>
-      <c r="T1" s="3">
-        <v>2021</v>
-      </c>
-      <c r="U1" s="3">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="D1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="3">
         <v>2534</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="3">
         <v>3196</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="3">
         <v>3684</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="3">
         <v>4706</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="3">
         <v>4572</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="3">
         <v>4681</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="3">
         <v>5447</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="3">
         <v>5183</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="3">
         <v>4614</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="3">
         <v>3915</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="3">
         <v>3493</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="3">
         <v>3420</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="3">
         <v>3189</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="3">
         <v>3421</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="3">
         <v>3481</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="3">
         <v>1898</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2" s="3">
         <v>2510</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U2" s="3">
         <v>2949</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="3">
         <v>3882</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="3">
         <v>5686</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="3">
         <v>7291</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="3">
         <v>8534</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="3">
         <v>8576</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="3">
         <v>7868</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="3">
         <v>8736</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="3">
         <v>7741</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="3">
         <v>7356</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="3">
         <v>7403</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="3">
         <v>6680</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="3">
         <v>5971</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="3">
         <v>5552</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="3">
         <v>5247</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="3">
         <v>4989</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="3">
         <v>2648</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3" s="3">
         <v>2704</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="3">
         <v>4354</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>34570</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="3">
         <v>40081</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="3">
         <v>49396</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="3">
         <v>55972</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="3">
         <v>56962</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="3">
         <v>56537</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="3">
         <v>63701</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="3">
         <v>58839</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="3">
         <v>60302</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="3">
         <v>59745</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="3">
         <v>56047</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="3">
         <v>51857</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="3">
         <v>51908</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="3">
         <v>51008</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="3">
         <v>51062</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="3">
         <v>35400</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="3">
         <v>36112</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="3">
         <v>42761</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <v>48149</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3">
         <v>52031</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="3">
         <v>61066</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="3">
         <v>66033</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="3">
         <v>67060</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="3">
         <v>64753</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="3">
         <v>72211</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="3">
         <v>66074</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="3">
         <v>66534</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="3">
         <v>64898</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="3">
         <v>63400</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="3">
         <v>59668</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="3">
         <v>59705</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="3">
         <v>57726</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="3">
         <v>61208</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="3">
         <v>45729</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="3">
         <v>48629</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="3">
         <v>58064</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>27514</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <v>31422</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="3">
         <v>37512</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="3">
         <v>41184</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="3">
         <v>42422</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="3">
         <v>42526</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="3">
         <v>47954</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="3">
         <v>44089</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="3">
         <v>42968</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="3">
         <v>42651</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="3">
         <v>41901</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="3">
         <v>39812</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="3">
         <v>40049</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="3">
         <v>39647</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="3">
         <v>41519</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="3">
         <v>31979</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="3">
         <v>33412</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="3">
         <v>38836</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>4640</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3">
         <v>5677</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="3">
         <v>6839</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="3">
         <v>7815</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="3">
         <v>7928</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="3">
         <v>7905</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="3">
         <v>8970</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="3">
         <v>8736</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="3">
         <v>8273</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="3">
         <v>8146</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="3">
         <v>8058</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="3">
         <v>7608</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="3">
         <v>8009</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="3">
         <v>8452</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="3">
         <v>9015</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="3">
         <v>6901</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="3">
         <v>8191</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="3">
         <v>9646</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <v>34</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="3">
         <v>34</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="3">
         <v>34</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="3">
         <v>39</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="3">
         <v>30</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="3">
         <v>73</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="3">
         <v>176</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="3">
         <v>134</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="3">
         <v>111</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="3">
         <v>97</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="3">
         <v>95</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="3">
         <v>94</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="3">
         <v>82</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="3">
         <v>106</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="3">
         <v>112</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="3">
         <v>106</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="3">
         <v>156</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="3">
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="4">
         <v>121323</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="4">
         <v>138127</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="4">
         <v>165822</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="4">
         <v>184283</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="4">
         <v>187550</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="4">
         <v>184343</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="4">
         <v>207195</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="4">
         <v>190796</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="4">
         <v>190158</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="4">
         <v>186855</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="4">
         <v>179674</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="4">
         <v>168430</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="4">
         <v>168494</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="4">
         <v>165607</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R9" s="4">
         <v>171386</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="4">
         <v>124661</v>
       </c>
-      <c r="T9" s="7">
+      <c r="T9" s="4">
         <v>131714</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U9" s="4">
         <v>156826</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <v>2721</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>3526</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="3">
         <v>3826</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="3">
         <v>4297</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="3">
         <v>4310</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="3">
         <v>4448</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="3">
         <v>5007</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="3">
         <v>4436</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="3">
         <v>3779</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="3">
         <v>3024</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="3">
         <v>2673</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="3">
         <v>2559</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="3">
         <v>2375</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="3">
         <v>2476</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="3">
         <v>2602</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="3">
         <v>1279</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="3">
         <v>1525</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="3">
         <v>1830</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="3">
         <v>4415</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="3">
         <v>6341</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="3">
         <v>7480</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="3">
         <v>7679</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="3">
         <v>7621</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="3">
         <v>6686</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="3">
         <v>7272</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="3">
         <v>5907</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="3">
         <v>5642</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="3">
         <v>5539</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="3">
         <v>4912</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="3">
         <v>4426</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="3">
         <v>3920</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="3">
         <v>3652</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="3">
         <v>3968</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="3">
         <v>1781</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11" s="3">
         <v>1687</v>
       </c>
-      <c r="U11" s="6">
+      <c r="U11" s="3">
         <v>3223</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="3">
         <v>42744</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="3">
         <v>50764</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="3">
         <v>63306</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="3">
         <v>69816</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="3">
         <v>74637</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="3">
         <v>74837</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="3">
         <v>78327</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="3">
         <v>65569</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="3">
         <v>65503</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="3">
         <v>64147</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="3">
         <v>61901</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="3">
         <v>56920</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="3">
         <v>56731</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="3">
         <v>55974</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="3">
         <v>57485</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="3">
         <v>39799</v>
       </c>
-      <c r="T12" s="6">
+      <c r="T12" s="3">
         <v>35697</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12" s="3">
         <v>44744</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="3">
         <v>60219</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="3">
         <v>67312</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="3">
         <v>75843</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="3">
         <v>77816</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="3">
         <v>80960</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="3">
         <v>80469</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="3">
         <v>86234</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="3">
         <v>78094</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="3">
         <v>78038</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="3">
         <v>79090</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="3">
         <v>77685</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="3">
         <v>72170</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="3">
         <v>73099</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13" s="3">
         <v>73915</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="3">
         <v>77733</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="3">
         <v>59933</v>
       </c>
-      <c r="T13" s="6">
+      <c r="T13" s="3">
         <v>55583</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13" s="3">
         <v>71660</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="3">
         <v>38320</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="3">
         <v>44939</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="3">
         <v>50586</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="3">
         <v>53830</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="3">
         <v>57234</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="3">
         <v>58021</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="3">
         <v>63243</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="3">
         <v>59011</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="3">
         <v>58310</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="3">
         <v>59392</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="3">
         <v>58845</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="3">
         <v>54960</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="3">
         <v>55818</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14" s="3">
         <v>54691</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14" s="3">
         <v>56936</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14" s="3">
         <v>45569</v>
       </c>
-      <c r="T14" s="6">
+      <c r="T14" s="3">
         <v>41779</v>
       </c>
-      <c r="U14" s="6">
+      <c r="U14" s="3">
         <v>51806</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="3">
         <v>5792</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="3">
         <v>6764</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="3">
         <v>8257</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="3">
         <v>8799</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="3">
         <v>9656</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="3">
         <v>9588</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="3">
         <v>11077</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="3">
         <v>10615</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="3">
         <v>10620</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="3">
         <v>10943</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="3">
         <v>11271</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="3">
         <v>10527</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="3">
         <v>11057</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15" s="3">
         <v>11373</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15" s="3">
         <v>12186</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15" s="3">
         <v>9312</v>
       </c>
-      <c r="T15" s="6">
+      <c r="T15" s="3">
         <v>9870</v>
       </c>
-      <c r="U15" s="6">
+      <c r="U15" s="3">
         <v>12149</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="3">
         <v>55</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="3">
         <v>34</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="3">
         <v>33</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="3">
         <v>27</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="3">
         <v>22</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="3">
         <v>93</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="3">
         <v>235</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="3">
         <v>125</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="3">
         <v>153</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="3">
         <v>104</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="3">
         <v>102</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="3">
         <v>80</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16" s="3">
         <v>112</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16" s="3">
         <v>113</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R16" s="3">
         <v>124</v>
       </c>
-      <c r="S16" s="6">
+      <c r="S16" s="3">
         <v>132</v>
       </c>
-      <c r="T16" s="6">
+      <c r="T16" s="3">
         <v>145</v>
       </c>
-      <c r="U16" s="6">
+      <c r="U16" s="3">
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="4">
         <v>154266</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="4">
         <v>179680</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="4">
         <v>209331</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="4">
         <v>222264</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="4">
         <v>234440</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="4">
         <v>234142</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="4">
         <v>251395</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="4">
         <v>223757</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="4">
         <v>222045</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="4">
         <v>222239</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="4">
         <v>217389</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="4">
         <v>201642</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="4">
         <v>203112</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="4">
         <v>202194</v>
       </c>
-      <c r="R17" s="7">
+      <c r="R17" s="4">
         <v>211034</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S17" s="4">
         <v>157805</v>
       </c>
-      <c r="T17" s="7">
+      <c r="T17" s="4">
         <v>146286</v>
       </c>
-      <c r="U17" s="7">
+      <c r="U17" s="4">
         <v>185609</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="3">
         <v>5255</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="3">
         <v>6722</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="3">
         <v>7510</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="3">
         <v>9003</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="3">
         <v>8882</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="3">
         <v>9129</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="3">
         <v>10454</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="3">
         <v>9619</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="3">
         <v>8393</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="3">
         <v>6939</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="3">
         <v>6166</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="3">
         <v>5979</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18" s="3">
         <v>5564</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="Q18" s="3">
         <v>5897</v>
       </c>
-      <c r="R18" s="6">
+      <c r="R18" s="3">
         <v>6083</v>
       </c>
-      <c r="S18" s="6">
+      <c r="S18" s="3">
         <v>3177</v>
       </c>
-      <c r="T18" s="6">
+      <c r="T18" s="3">
         <v>4035</v>
       </c>
-      <c r="U18" s="6">
+      <c r="U18" s="3">
         <v>4779</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="3">
         <v>8297</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="3">
         <v>12027</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="3">
         <v>14771</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="3">
         <v>16213</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="3">
         <v>16197</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="3">
         <v>14554</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="3">
         <v>16008</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="3">
         <v>13648</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="3">
         <v>12998</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="3">
         <v>12942</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="3">
         <v>11592</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="3">
         <v>10397</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19" s="3">
         <v>9472</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q19" s="3">
         <v>8899</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R19" s="3">
         <v>8957</v>
       </c>
-      <c r="S19" s="6">
+      <c r="S19" s="3">
         <v>4429</v>
       </c>
-      <c r="T19" s="6">
+      <c r="T19" s="3">
         <v>4391</v>
       </c>
-      <c r="U19" s="6">
+      <c r="U19" s="3">
         <v>7577</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="3">
         <v>77314</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="3">
         <v>90845</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="3">
         <v>112702</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="3">
         <v>125788</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="3">
         <v>131599</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="3">
         <v>131374</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="3">
         <v>142028</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="3">
         <v>124408</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="3">
         <v>125805</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="3">
         <v>123892</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="3">
         <v>117948</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="3">
         <v>108777</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20" s="3">
         <v>108639</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="Q20" s="3">
         <v>106982</v>
       </c>
-      <c r="R20" s="6">
+      <c r="R20" s="3">
         <v>108547</v>
       </c>
-      <c r="S20" s="6">
+      <c r="S20" s="3">
         <v>75199</v>
       </c>
-      <c r="T20" s="6">
+      <c r="T20" s="3">
         <v>71809</v>
       </c>
-      <c r="U20" s="6">
+      <c r="U20" s="3">
         <v>87505</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="3">
         <v>108368</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="3">
         <v>119343</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="3">
         <v>136909</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="3">
         <v>143849</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="3">
         <v>148020</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="3">
         <v>145222</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="3">
         <v>158445</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="3">
         <v>144168</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="3">
         <v>144572</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="3">
         <v>143988</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="3">
         <v>141085</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="3">
         <v>131838</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="3">
         <v>132804</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="Q21" s="3">
         <v>131641</v>
       </c>
-      <c r="R21" s="6">
+      <c r="R21" s="3">
         <v>138941</v>
       </c>
-      <c r="S21" s="6">
+      <c r="S21" s="3">
         <v>105662</v>
       </c>
-      <c r="T21" s="6">
+      <c r="T21" s="3">
         <v>104212</v>
       </c>
-      <c r="U21" s="6">
+      <c r="U21" s="3">
         <v>129724</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="3">
         <v>65834</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="3">
         <v>76361</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="3">
         <v>88098</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="3">
         <v>95014</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="3">
         <v>99656</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="3">
         <v>100547</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="3">
         <v>111197</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="3">
         <v>103100</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="3">
         <v>101278</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="3">
         <v>102043</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="3">
         <v>100746</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="3">
         <v>94772</v>
       </c>
-      <c r="P22" s="6">
+      <c r="P22" s="3">
         <v>95867</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="Q22" s="3">
         <v>94338</v>
       </c>
-      <c r="R22" s="6">
+      <c r="R22" s="3">
         <v>98455</v>
       </c>
-      <c r="S22" s="6">
+      <c r="S22" s="3">
         <v>77548</v>
       </c>
-      <c r="T22" s="6">
+      <c r="T22" s="3">
         <v>75191</v>
       </c>
-      <c r="U22" s="6">
+      <c r="U22" s="3">
         <v>90642</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="3">
         <v>10432</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="3">
         <v>12441</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="3">
         <v>15096</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="3">
         <v>16614</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="3">
         <v>17584</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="3">
         <v>17493</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="3">
         <v>20047</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="3">
         <v>19351</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="3">
         <v>18893</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="3">
         <v>19089</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="3">
         <v>19329</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23" s="3">
         <v>18135</v>
       </c>
-      <c r="P23" s="6">
+      <c r="P23" s="3">
         <v>19066</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="Q23" s="3">
         <v>19825</v>
       </c>
-      <c r="R23" s="6">
+      <c r="R23" s="3">
         <v>21201</v>
       </c>
-      <c r="S23" s="6">
+      <c r="S23" s="3">
         <v>16213</v>
       </c>
-      <c r="T23" s="6">
+      <c r="T23" s="3">
         <v>18061</v>
       </c>
-      <c r="U23" s="6">
+      <c r="U23" s="3">
         <v>21795</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="3">
         <v>89</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="3">
         <v>68</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="3">
         <v>67</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="3">
         <v>66</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="3">
         <v>52</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="3">
         <v>166</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="3">
         <v>411</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="3">
         <v>259</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="3">
         <v>264</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="3">
         <v>201</v>
       </c>
-      <c r="N24" s="6">
+      <c r="N24" s="3">
         <v>197</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O24" s="3">
         <v>174</v>
       </c>
-      <c r="P24" s="6">
+      <c r="P24" s="3">
         <v>194</v>
       </c>
-      <c r="Q24" s="6">
+      <c r="Q24" s="3">
         <v>219</v>
       </c>
-      <c r="R24" s="6">
+      <c r="R24" s="3">
         <v>236</v>
       </c>
-      <c r="S24" s="6">
+      <c r="S24" s="3">
         <v>238</v>
       </c>
-      <c r="T24" s="6">
+      <c r="T24" s="3">
         <v>301</v>
       </c>
-      <c r="U24" s="6">
+      <c r="U24" s="3">
         <v>413</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="4">
         <v>275589</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="4">
         <v>317807</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="4">
         <v>375153</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="4">
         <v>406547</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="4">
         <v>421990</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="4">
         <v>418485</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="4">
         <v>458590</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="4">
         <v>414553</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="4">
         <v>412203</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="4">
         <v>409094</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="4">
         <v>397063</v>
       </c>
-      <c r="O25" s="7">
+      <c r="O25" s="4">
         <v>370072</v>
       </c>
-      <c r="P25" s="7">
+      <c r="P25" s="4">
         <v>371606</v>
       </c>
-      <c r="Q25" s="7">
+      <c r="Q25" s="4">
         <v>367801</v>
       </c>
-      <c r="R25" s="7">
+      <c r="R25" s="4">
         <v>382420</v>
       </c>
-      <c r="S25" s="7">
+      <c r="S25" s="4">
         <v>282466</v>
       </c>
-      <c r="T25" s="7">
+      <c r="T25" s="4">
         <v>278000</v>
       </c>
-      <c r="U25" s="7">
+      <c r="U25" s="4">
         <v>342435</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="3">
         <v>488</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="3">
         <v>482</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="3">
         <v>624</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="3">
         <v>589</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="3">
         <v>642</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="3">
         <v>561</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="3">
         <v>645</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="3">
         <v>393</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="3">
         <v>336</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="3">
         <v>218</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N26" s="3">
         <v>148</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O26" s="3">
         <v>126</v>
       </c>
-      <c r="P26" s="6">
+      <c r="P26" s="3">
         <v>97</v>
       </c>
-      <c r="Q26" s="6">
+      <c r="Q26" s="3">
         <v>82</v>
       </c>
-      <c r="R26" s="6">
+      <c r="R26" s="3">
         <v>74</v>
       </c>
-      <c r="S26" s="6">
+      <c r="S26" s="3">
         <v>39</v>
       </c>
-      <c r="T26" s="6">
+      <c r="T26" s="3">
         <v>19</v>
       </c>
-      <c r="U26" s="6">
+      <c r="U26" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="3">
         <v>2550</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="3">
         <v>3523</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="3">
         <v>3761</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="3">
         <v>4173</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="3">
         <v>4127</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="3">
         <v>3962</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="3">
         <v>4993</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="3">
         <v>4393</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="3">
         <v>4266</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27" s="3">
         <v>4332</v>
       </c>
-      <c r="N27" s="6">
+      <c r="N27" s="3">
         <v>4205</v>
       </c>
-      <c r="O27" s="6">
+      <c r="O27" s="3">
         <v>3777</v>
       </c>
-      <c r="P27" s="6">
+      <c r="P27" s="3">
         <v>3327</v>
       </c>
-      <c r="Q27" s="6">
+      <c r="Q27" s="3">
         <v>3088</v>
       </c>
-      <c r="R27" s="6">
+      <c r="R27" s="3">
         <v>2687</v>
       </c>
-      <c r="S27" s="6">
+      <c r="S27" s="3">
         <v>1026</v>
       </c>
-      <c r="T27" s="6">
+      <c r="T27" s="3">
         <v>712</v>
       </c>
-      <c r="U27" s="6">
+      <c r="U27" s="3">
         <v>904</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="3">
         <v>10546</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="3">
         <v>9988</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="3">
         <v>11183</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="3">
         <v>13745</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="3">
         <v>16584</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="3">
         <v>17528</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="3">
         <v>20307</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="3">
         <v>18628</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="3">
         <v>16610</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M28" s="3">
         <v>16079</v>
       </c>
-      <c r="N28" s="6">
+      <c r="N28" s="3">
         <v>16375</v>
       </c>
-      <c r="O28" s="6">
+      <c r="O28" s="3">
         <v>16918</v>
       </c>
-      <c r="P28" s="6">
+      <c r="P28" s="3">
         <v>19129</v>
       </c>
-      <c r="Q28" s="6">
+      <c r="Q28" s="3">
         <v>16804</v>
       </c>
-      <c r="R28" s="6">
+      <c r="R28" s="3">
         <v>14624</v>
       </c>
-      <c r="S28" s="6">
+      <c r="S28" s="3">
         <v>8318</v>
       </c>
-      <c r="T28" s="6">
+      <c r="T28" s="3">
         <v>8428</v>
       </c>
-      <c r="U28" s="6">
+      <c r="U28" s="3">
         <v>7698</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="3">
         <v>8134</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="3">
         <v>8536</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="3">
         <v>9626</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="3">
         <v>12031</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="3">
         <v>14372</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="3">
         <v>14534</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="3">
         <v>15874</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="3">
         <v>15013</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="3">
         <v>13518</v>
       </c>
-      <c r="M29" s="6">
+      <c r="M29" s="3">
         <v>12711</v>
       </c>
-      <c r="N29" s="6">
+      <c r="N29" s="3">
         <v>13359</v>
       </c>
-      <c r="O29" s="6">
+      <c r="O29" s="3">
         <v>13651</v>
       </c>
-      <c r="P29" s="6">
+      <c r="P29" s="3">
         <v>15690</v>
       </c>
-      <c r="Q29" s="6">
+      <c r="Q29" s="3">
         <v>14583</v>
       </c>
-      <c r="R29" s="6">
+      <c r="R29" s="3">
         <v>12402</v>
       </c>
-      <c r="S29" s="6">
+      <c r="S29" s="3">
         <v>7883</v>
       </c>
-      <c r="T29" s="6">
+      <c r="T29" s="3">
         <v>8822</v>
       </c>
-      <c r="U29" s="6">
+      <c r="U29" s="3">
         <v>9044</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="3">
         <v>3707</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="3">
         <v>4278</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="3">
         <v>5126</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="3">
         <v>6881</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="3">
         <v>8038</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="3">
         <v>8518</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="3">
         <v>9165</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="3">
         <v>8020</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="3">
         <v>6825</v>
       </c>
-      <c r="M30" s="6">
+      <c r="M30" s="3">
         <v>6600</v>
       </c>
-      <c r="N30" s="6">
+      <c r="N30" s="3">
         <v>7037</v>
       </c>
-      <c r="O30" s="6">
+      <c r="O30" s="3">
         <v>6723</v>
       </c>
-      <c r="P30" s="6">
+      <c r="P30" s="3">
         <v>7424</v>
       </c>
-      <c r="Q30" s="6">
+      <c r="Q30" s="3">
         <v>7073</v>
       </c>
-      <c r="R30" s="6">
+      <c r="R30" s="3">
         <v>6187</v>
       </c>
-      <c r="S30" s="6">
+      <c r="S30" s="3">
         <v>3792</v>
       </c>
-      <c r="T30" s="6">
+      <c r="T30" s="3">
         <v>4502</v>
       </c>
-      <c r="U30" s="6">
+      <c r="U30" s="3">
         <v>4239</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="3">
         <v>336</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="3">
         <v>401</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="3">
         <v>542</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="3">
         <v>1017</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="3">
         <v>1143</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="3">
         <v>789</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="3">
         <v>933</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="3">
         <v>787</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L31" s="3">
         <v>612</v>
       </c>
-      <c r="M31" s="6">
+      <c r="M31" s="3">
         <v>572</v>
       </c>
-      <c r="N31" s="6">
+      <c r="N31" s="3">
         <v>538</v>
       </c>
-      <c r="O31" s="6">
+      <c r="O31" s="3">
         <v>575</v>
       </c>
-      <c r="P31" s="6">
+      <c r="P31" s="3">
         <v>638</v>
       </c>
-      <c r="Q31" s="6">
+      <c r="Q31" s="3">
         <v>653</v>
       </c>
-      <c r="R31" s="6">
+      <c r="R31" s="3">
         <v>585</v>
       </c>
-      <c r="S31" s="6">
+      <c r="S31" s="3">
         <v>400</v>
       </c>
-      <c r="T31" s="6">
+      <c r="T31" s="3">
         <v>473</v>
       </c>
-      <c r="U31" s="6">
+      <c r="U31" s="3">
         <v>493</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="3">
         <v>15</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="3">
         <v>14</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="3">
         <v>25</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="3">
         <v>24</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="3">
         <v>7</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="3">
         <v>5</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="3">
         <v>70</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="3">
         <v>116</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L32" s="3">
         <v>92</v>
       </c>
-      <c r="M32" s="6">
+      <c r="M32" s="3">
         <v>55</v>
       </c>
-      <c r="N32" s="6">
+      <c r="N32" s="3">
         <v>52</v>
       </c>
-      <c r="O32" s="6">
+      <c r="O32" s="3">
         <v>38</v>
       </c>
-      <c r="P32" s="6">
+      <c r="P32" s="3">
         <v>65</v>
       </c>
-      <c r="Q32" s="6">
+      <c r="Q32" s="3">
         <v>88</v>
       </c>
-      <c r="R32" s="6">
+      <c r="R32" s="3">
         <v>50</v>
       </c>
-      <c r="S32" s="6">
+      <c r="S32" s="3">
         <v>69</v>
       </c>
-      <c r="T32" s="6">
+      <c r="T32" s="3">
         <v>105</v>
       </c>
-      <c r="U32" s="6">
+      <c r="U32" s="3">
         <v>224</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="4">
         <v>25776</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="4">
         <v>27222</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="4">
         <v>30887</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="4">
         <v>38460</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="4">
         <v>44913</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="4">
         <v>45897</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="4">
         <v>51987</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="4">
         <v>47350</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="4">
         <v>42259</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M33" s="4">
         <v>40567</v>
       </c>
-      <c r="N33" s="7">
+      <c r="N33" s="4">
         <v>41714</v>
       </c>
-      <c r="O33" s="7">
+      <c r="O33" s="4">
         <v>41808</v>
       </c>
-      <c r="P33" s="7">
+      <c r="P33" s="4">
         <v>46370</v>
       </c>
-      <c r="Q33" s="7">
+      <c r="Q33" s="4">
         <v>42371</v>
       </c>
-      <c r="R33" s="7">
+      <c r="R33" s="4">
         <v>36609</v>
       </c>
-      <c r="S33" s="7">
+      <c r="S33" s="4">
         <v>21527</v>
       </c>
-      <c r="T33" s="7">
+      <c r="T33" s="4">
         <v>23061</v>
       </c>
-      <c r="U33" s="7">
+      <c r="U33" s="4">
         <v>22628</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="3">
         <v>1743</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="3">
         <v>1591</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="3">
         <v>1503</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="3">
         <v>1124</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="3">
         <v>1282</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="3">
         <v>1028</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="3">
         <v>1113</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="3">
         <v>907</v>
       </c>
-      <c r="L34" s="6">
+      <c r="L34" s="3">
         <v>609</v>
       </c>
-      <c r="M34" s="6">
+      <c r="M34" s="3">
         <v>324</v>
       </c>
-      <c r="N34" s="6">
+      <c r="N34" s="3">
         <v>244</v>
       </c>
-      <c r="O34" s="6">
+      <c r="O34" s="3">
         <v>190</v>
       </c>
-      <c r="P34" s="6">
+      <c r="P34" s="3">
         <v>169</v>
       </c>
-      <c r="Q34" s="6">
+      <c r="Q34" s="3">
         <v>133</v>
       </c>
-      <c r="R34" s="6">
+      <c r="R34" s="3">
         <v>155</v>
       </c>
-      <c r="S34" s="6">
+      <c r="S34" s="3">
         <v>78</v>
       </c>
-      <c r="T34" s="6">
+      <c r="T34" s="3">
         <v>50</v>
       </c>
-      <c r="U34" s="6">
+      <c r="U34" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="3">
         <v>13359</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="3">
         <v>15986</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="3">
         <v>15577</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="3">
         <v>15755</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="3">
         <v>15743</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="3">
         <v>14174</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="3">
         <v>18065</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="3">
         <v>15221</v>
       </c>
-      <c r="L35" s="6">
+      <c r="L35" s="3">
         <v>13799</v>
       </c>
-      <c r="M35" s="6">
+      <c r="M35" s="3">
         <v>12334</v>
       </c>
-      <c r="N35" s="6">
+      <c r="N35" s="3">
         <v>11260</v>
       </c>
-      <c r="O35" s="6">
+      <c r="O35" s="3">
         <v>9877</v>
       </c>
-      <c r="P35" s="6">
+      <c r="P35" s="3">
         <v>8139</v>
       </c>
-      <c r="Q35" s="6">
+      <c r="Q35" s="3">
         <v>6836</v>
       </c>
-      <c r="R35" s="6">
+      <c r="R35" s="3">
         <v>6838</v>
       </c>
-      <c r="S35" s="6">
+      <c r="S35" s="3">
         <v>3343</v>
       </c>
-      <c r="T35" s="6">
+      <c r="T35" s="3">
         <v>2608</v>
       </c>
-      <c r="U35" s="6">
+      <c r="U35" s="3">
         <v>3644</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="3">
         <v>52336</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="3">
         <v>51918</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="3">
         <v>58119</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="3">
         <v>72208</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="3">
         <v>87165</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="3">
         <v>90245</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36" s="3">
         <v>97984</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="3">
         <v>90129</v>
       </c>
-      <c r="L36" s="6">
+      <c r="L36" s="3">
         <v>74003</v>
       </c>
-      <c r="M36" s="6">
+      <c r="M36" s="3">
         <v>68881</v>
       </c>
-      <c r="N36" s="6">
+      <c r="N36" s="3">
         <v>65847</v>
       </c>
-      <c r="O36" s="6">
+      <c r="O36" s="3">
         <v>63794</v>
       </c>
-      <c r="P36" s="6">
+      <c r="P36" s="3">
         <v>69657</v>
       </c>
-      <c r="Q36" s="6">
+      <c r="Q36" s="3">
         <v>58564</v>
       </c>
-      <c r="R36" s="6">
+      <c r="R36" s="3">
         <v>48710</v>
       </c>
-      <c r="S36" s="6">
+      <c r="S36" s="3">
         <v>28669</v>
       </c>
-      <c r="T36" s="6">
+      <c r="T36" s="3">
         <v>26587</v>
       </c>
-      <c r="U36" s="6">
+      <c r="U36" s="3">
         <v>26086</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="3">
         <v>36071</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="3">
         <v>37892</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="3">
         <v>41305</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="3">
         <v>53327</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="3">
         <v>62177</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="3">
         <v>62493</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="3">
         <v>69264</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="3">
         <v>65814</v>
       </c>
-      <c r="L37" s="6">
+      <c r="L37" s="3">
         <v>55504</v>
       </c>
-      <c r="M37" s="6">
+      <c r="M37" s="3">
         <v>51519</v>
       </c>
-      <c r="N37" s="6">
+      <c r="N37" s="3">
         <v>51459</v>
       </c>
-      <c r="O37" s="6">
+      <c r="O37" s="3">
         <v>52054</v>
       </c>
-      <c r="P37" s="6">
+      <c r="P37" s="3">
         <v>57992</v>
       </c>
-      <c r="Q37" s="6">
+      <c r="Q37" s="3">
         <v>52708</v>
       </c>
-      <c r="R37" s="6">
+      <c r="R37" s="3">
         <v>45185</v>
       </c>
-      <c r="S37" s="6">
+      <c r="S37" s="3">
         <v>30129</v>
       </c>
-      <c r="T37" s="6">
+      <c r="T37" s="3">
         <v>32044</v>
       </c>
-      <c r="U37" s="6">
+      <c r="U37" s="3">
         <v>33183</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="3">
         <v>12480</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="3">
         <v>15171</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="3">
         <v>17432</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="3">
         <v>25716</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="3">
         <v>29864</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="3">
         <v>29853</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="3">
         <v>33534</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="3">
         <v>31550</v>
       </c>
-      <c r="L38" s="6">
+      <c r="L38" s="3">
         <v>25939</v>
       </c>
-      <c r="M38" s="6">
+      <c r="M38" s="3">
         <v>23289</v>
       </c>
-      <c r="N38" s="6">
+      <c r="N38" s="3">
         <v>23231</v>
       </c>
-      <c r="O38" s="6">
+      <c r="O38" s="3">
         <v>22949</v>
       </c>
-      <c r="P38" s="6">
+      <c r="P38" s="3">
         <v>25173</v>
       </c>
-      <c r="Q38" s="6">
+      <c r="Q38" s="3">
         <v>23401</v>
       </c>
-      <c r="R38" s="6">
+      <c r="R38" s="3">
         <v>20300</v>
       </c>
-      <c r="S38" s="6">
+      <c r="S38" s="3">
         <v>14019</v>
       </c>
-      <c r="T38" s="6">
+      <c r="T38" s="3">
         <v>15383</v>
       </c>
-      <c r="U38" s="6">
+      <c r="U38" s="3">
         <v>14866</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="3">
         <v>800</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="3">
         <v>1091</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="3">
         <v>1697</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="3">
         <v>4042</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="3">
         <v>4490</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="3">
         <v>2457</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="3">
         <v>2721</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="3">
         <v>2690</v>
       </c>
-      <c r="L39" s="6">
+      <c r="L39" s="3">
         <v>2204</v>
       </c>
-      <c r="M39" s="6">
+      <c r="M39" s="3">
         <v>1891</v>
       </c>
-      <c r="N39" s="6">
+      <c r="N39" s="3">
         <v>1898</v>
       </c>
-      <c r="O39" s="6">
+      <c r="O39" s="3">
         <v>1936</v>
       </c>
-      <c r="P39" s="6">
+      <c r="P39" s="3">
         <v>1992</v>
       </c>
-      <c r="Q39" s="6">
+      <c r="Q39" s="3">
         <v>2156</v>
       </c>
-      <c r="R39" s="6">
+      <c r="R39" s="3">
         <v>1994</v>
       </c>
-      <c r="S39" s="6">
+      <c r="S39" s="3">
         <v>1560</v>
       </c>
-      <c r="T39" s="6">
+      <c r="T39" s="3">
         <v>1952</v>
       </c>
-      <c r="U39" s="6">
+      <c r="U39" s="3">
         <v>1934</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="3">
         <v>63</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="3">
         <v>75</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="3">
         <v>72</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="3">
         <v>65</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="3">
         <v>27</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="3">
         <v>37</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="3">
         <v>230</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K40" s="3">
         <v>276</v>
       </c>
-      <c r="L40" s="6">
+      <c r="L40" s="3">
         <v>233</v>
       </c>
-      <c r="M40" s="6">
+      <c r="M40" s="3">
         <v>168</v>
       </c>
-      <c r="N40" s="6">
+      <c r="N40" s="3">
         <v>94</v>
       </c>
-      <c r="O40" s="6">
+      <c r="O40" s="3">
         <v>115</v>
       </c>
-      <c r="P40" s="6">
+      <c r="P40" s="3">
         <v>121</v>
       </c>
-      <c r="Q40" s="6">
+      <c r="Q40" s="3">
         <v>188</v>
       </c>
-      <c r="R40" s="6">
+      <c r="R40" s="3">
         <v>115</v>
       </c>
-      <c r="S40" s="6">
+      <c r="S40" s="3">
         <v>154</v>
       </c>
-      <c r="T40" s="6">
+      <c r="T40" s="3">
         <v>240</v>
       </c>
-      <c r="U40" s="6">
+      <c r="U40" s="3">
         <v>535</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="4">
         <v>116852</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="4">
         <v>123724</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="4">
         <v>135705</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="4">
         <v>172237</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="4">
         <v>200748</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="4">
         <v>200287</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="4">
         <v>222911</v>
       </c>
-      <c r="K41" s="7">
+      <c r="K41" s="4">
         <v>206587</v>
       </c>
-      <c r="L41" s="7">
+      <c r="L41" s="4">
         <v>172291</v>
       </c>
-      <c r="M41" s="7">
+      <c r="M41" s="4">
         <v>158406</v>
       </c>
-      <c r="N41" s="7">
+      <c r="N41" s="4">
         <v>154033</v>
       </c>
-      <c r="O41" s="7">
+      <c r="O41" s="4">
         <v>150915</v>
       </c>
-      <c r="P41" s="7">
+      <c r="P41" s="4">
         <v>163243</v>
       </c>
-      <c r="Q41" s="7">
+      <c r="Q41" s="4">
         <v>143986</v>
       </c>
-      <c r="R41" s="7">
+      <c r="R41" s="4">
         <v>123297</v>
       </c>
-      <c r="S41" s="7">
+      <c r="S41" s="4">
         <v>77952</v>
       </c>
-      <c r="T41" s="7">
+      <c r="T41" s="4">
         <v>78864</v>
       </c>
-      <c r="U41" s="7">
+      <c r="U41" s="4">
         <v>80336</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="3">
         <v>2231</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="3">
         <v>2073</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="3">
         <v>2127</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="3">
         <v>1713</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="3">
         <v>1924</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42" s="3">
         <v>1589</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42" s="3">
         <v>1758</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K42" s="3">
         <v>1300</v>
       </c>
-      <c r="L42" s="6">
+      <c r="L42" s="3">
         <v>945</v>
       </c>
-      <c r="M42" s="6">
+      <c r="M42" s="3">
         <v>542</v>
       </c>
-      <c r="N42" s="6">
+      <c r="N42" s="3">
         <v>392</v>
       </c>
-      <c r="O42" s="6">
+      <c r="O42" s="3">
         <v>316</v>
       </c>
-      <c r="P42" s="6">
+      <c r="P42" s="3">
         <v>266</v>
       </c>
-      <c r="Q42" s="6">
+      <c r="Q42" s="3">
         <v>215</v>
       </c>
-      <c r="R42" s="6">
+      <c r="R42" s="3">
         <v>229</v>
       </c>
-      <c r="S42" s="6">
+      <c r="S42" s="3">
         <v>117</v>
       </c>
-      <c r="T42" s="6">
+      <c r="T42" s="3">
         <v>69</v>
       </c>
-      <c r="U42" s="6">
+      <c r="U42" s="3">
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="3">
         <v>15909</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="3">
         <v>19509</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="3">
         <v>19338</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="3">
         <v>19928</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="3">
         <v>19870</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43" s="3">
         <v>18136</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="3">
         <v>23058</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K43" s="3">
         <v>19614</v>
       </c>
-      <c r="L43" s="6">
+      <c r="L43" s="3">
         <v>18065</v>
       </c>
-      <c r="M43" s="6">
+      <c r="M43" s="3">
         <v>16666</v>
       </c>
-      <c r="N43" s="6">
+      <c r="N43" s="3">
         <v>15465</v>
       </c>
-      <c r="O43" s="6">
+      <c r="O43" s="3">
         <v>13654</v>
       </c>
-      <c r="P43" s="6">
+      <c r="P43" s="3">
         <v>11466</v>
       </c>
-      <c r="Q43" s="6">
+      <c r="Q43" s="3">
         <v>9924</v>
       </c>
-      <c r="R43" s="6">
+      <c r="R43" s="3">
         <v>9525</v>
       </c>
-      <c r="S43" s="6">
+      <c r="S43" s="3">
         <v>4369</v>
       </c>
-      <c r="T43" s="6">
+      <c r="T43" s="3">
         <v>3320</v>
       </c>
-      <c r="U43" s="6">
+      <c r="U43" s="3">
         <v>4548</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="3">
         <v>62882</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="3">
         <v>61906</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="3">
         <v>69302</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="3">
         <v>85953</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="3">
         <v>103749</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44" s="3">
         <v>107773</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="3">
         <v>118291</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K44" s="3">
         <v>108757</v>
       </c>
-      <c r="L44" s="6">
+      <c r="L44" s="3">
         <v>90613</v>
       </c>
-      <c r="M44" s="6">
+      <c r="M44" s="3">
         <v>84960</v>
       </c>
-      <c r="N44" s="6">
+      <c r="N44" s="3">
         <v>82222</v>
       </c>
-      <c r="O44" s="6">
+      <c r="O44" s="3">
         <v>80712</v>
       </c>
-      <c r="P44" s="6">
+      <c r="P44" s="3">
         <v>88786</v>
       </c>
-      <c r="Q44" s="6">
+      <c r="Q44" s="3">
         <v>75368</v>
       </c>
-      <c r="R44" s="6">
+      <c r="R44" s="3">
         <v>63334</v>
       </c>
-      <c r="S44" s="6">
+      <c r="S44" s="3">
         <v>36987</v>
       </c>
-      <c r="T44" s="6">
+      <c r="T44" s="3">
         <v>35015</v>
       </c>
-      <c r="U44" s="6">
+      <c r="U44" s="3">
         <v>33784</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="3">
         <v>44205</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="3">
         <v>46428</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="3">
         <v>50931</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="3">
         <v>65358</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45" s="3">
         <v>76549</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I45" s="3">
         <v>77027</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="3">
         <v>85138</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K45" s="3">
         <v>80827</v>
       </c>
-      <c r="L45" s="6">
+      <c r="L45" s="3">
         <v>69022</v>
       </c>
-      <c r="M45" s="6">
+      <c r="M45" s="3">
         <v>64230</v>
       </c>
-      <c r="N45" s="6">
+      <c r="N45" s="3">
         <v>64818</v>
       </c>
-      <c r="O45" s="6">
+      <c r="O45" s="3">
         <v>65705</v>
       </c>
-      <c r="P45" s="6">
+      <c r="P45" s="3">
         <v>73682</v>
       </c>
-      <c r="Q45" s="6">
+      <c r="Q45" s="3">
         <v>67291</v>
       </c>
-      <c r="R45" s="6">
+      <c r="R45" s="3">
         <v>57587</v>
       </c>
-      <c r="S45" s="6">
+      <c r="S45" s="3">
         <v>38012</v>
       </c>
-      <c r="T45" s="6">
+      <c r="T45" s="3">
         <v>40866</v>
       </c>
-      <c r="U45" s="6">
+      <c r="U45" s="3">
         <v>42227</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A46" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="3">
         <v>16187</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="3">
         <v>19449</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="3">
         <v>22558</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="3">
         <v>32597</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="3">
         <v>37902</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I46" s="3">
         <v>38371</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="3">
         <v>42699</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K46" s="3">
         <v>39570</v>
       </c>
-      <c r="L46" s="6">
+      <c r="L46" s="3">
         <v>32764</v>
       </c>
-      <c r="M46" s="6">
+      <c r="M46" s="3">
         <v>29889</v>
       </c>
-      <c r="N46" s="6">
+      <c r="N46" s="3">
         <v>30268</v>
       </c>
-      <c r="O46" s="6">
+      <c r="O46" s="3">
         <v>29672</v>
       </c>
-      <c r="P46" s="6">
+      <c r="P46" s="3">
         <v>32597</v>
       </c>
-      <c r="Q46" s="6">
+      <c r="Q46" s="3">
         <v>30474</v>
       </c>
-      <c r="R46" s="6">
+      <c r="R46" s="3">
         <v>26487</v>
       </c>
-      <c r="S46" s="6">
+      <c r="S46" s="3">
         <v>17811</v>
       </c>
-      <c r="T46" s="6">
+      <c r="T46" s="3">
         <v>19885</v>
       </c>
-      <c r="U46" s="6">
+      <c r="U46" s="3">
         <v>19105</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="3">
         <v>1136</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="3">
         <v>1492</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="3">
         <v>2239</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="3">
         <v>5059</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47" s="3">
         <v>5633</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I47" s="3">
         <v>3246</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J47" s="3">
         <v>3654</v>
       </c>
-      <c r="K47" s="6">
+      <c r="K47" s="3">
         <v>3477</v>
       </c>
-      <c r="L47" s="6">
+      <c r="L47" s="3">
         <v>2816</v>
       </c>
-      <c r="M47" s="6">
+      <c r="M47" s="3">
         <v>2463</v>
       </c>
-      <c r="N47" s="6">
+      <c r="N47" s="3">
         <v>2436</v>
       </c>
-      <c r="O47" s="6">
+      <c r="O47" s="3">
         <v>2511</v>
       </c>
-      <c r="P47" s="6">
+      <c r="P47" s="3">
         <v>2630</v>
       </c>
-      <c r="Q47" s="6">
+      <c r="Q47" s="3">
         <v>2809</v>
       </c>
-      <c r="R47" s="6">
+      <c r="R47" s="3">
         <v>2579</v>
       </c>
-      <c r="S47" s="6">
+      <c r="S47" s="3">
         <v>1960</v>
       </c>
-      <c r="T47" s="6">
+      <c r="T47" s="3">
         <v>2425</v>
       </c>
-      <c r="U47" s="6">
+      <c r="U47" s="3">
         <v>2427</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+    <row r="48" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="3">
         <v>78</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="3">
         <v>89</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="3">
         <v>97</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="3">
         <v>89</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="3">
         <v>34</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I48" s="3">
         <v>42</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J48" s="3">
         <v>300</v>
       </c>
-      <c r="K48" s="6">
+      <c r="K48" s="3">
         <v>392</v>
       </c>
-      <c r="L48" s="6">
+      <c r="L48" s="3">
         <v>325</v>
       </c>
-      <c r="M48" s="6">
+      <c r="M48" s="3">
         <v>223</v>
       </c>
-      <c r="N48" s="6">
+      <c r="N48" s="3">
         <v>146</v>
       </c>
-      <c r="O48" s="6">
+      <c r="O48" s="3">
         <v>153</v>
       </c>
-      <c r="P48" s="6">
+      <c r="P48" s="3">
         <v>186</v>
       </c>
-      <c r="Q48" s="6">
+      <c r="Q48" s="3">
         <v>276</v>
       </c>
-      <c r="R48" s="6">
+      <c r="R48" s="3">
         <v>165</v>
       </c>
-      <c r="S48" s="6">
+      <c r="S48" s="3">
         <v>223</v>
       </c>
-      <c r="T48" s="6">
+      <c r="T48" s="3">
         <v>345</v>
       </c>
-      <c r="U48" s="6">
+      <c r="U48" s="3">
         <v>759</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+    <row r="49" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A49" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="4">
         <v>142628</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="4">
         <v>150946</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="4">
         <v>166592</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="4">
         <v>210697</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="4">
         <v>245661</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="4">
         <v>246184</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J49" s="4">
         <v>274898</v>
       </c>
-      <c r="K49" s="7">
+      <c r="K49" s="4">
         <v>253937</v>
       </c>
-      <c r="L49" s="7">
+      <c r="L49" s="4">
         <v>214550</v>
       </c>
-      <c r="M49" s="7">
+      <c r="M49" s="4">
         <v>198973</v>
       </c>
-      <c r="N49" s="7">
+      <c r="N49" s="4">
         <v>195747</v>
       </c>
-      <c r="O49" s="7">
+      <c r="O49" s="4">
         <v>192723</v>
       </c>
-      <c r="P49" s="7">
+      <c r="P49" s="4">
         <v>209613</v>
       </c>
-      <c r="Q49" s="7">
+      <c r="Q49" s="4">
         <v>186357</v>
       </c>
-      <c r="R49" s="7">
+      <c r="R49" s="4">
         <v>159906</v>
       </c>
-      <c r="S49" s="7">
+      <c r="S49" s="4">
         <v>99479</v>
       </c>
-      <c r="T49" s="7">
+      <c r="T49" s="4">
         <v>101925</v>
       </c>
-      <c r="U49" s="7">
+      <c r="U49" s="4">
         <v>102964</v>
       </c>
     </row>
